--- a/scraper/top_remaining_spreadsheets_states/top_remaining_NJ.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_NJ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>STATE</t>
   </si>
@@ -44,228 +44,231 @@
     <t>POCKET CHANGE</t>
   </si>
   <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>LOOSE CHANGE</t>
+  </si>
+  <si>
+    <t>Holiday Sparkle</t>
+  </si>
+  <si>
+    <t>HOLIDAY LOOSE CHANGE</t>
+  </si>
+  <si>
+    <t>5X THE BUCKS</t>
+  </si>
+  <si>
+    <t>$2.00 Games</t>
+  </si>
+  <si>
+    <t>Big Money Spectacular</t>
+  </si>
+  <si>
+    <t>BIG MONEY SPECTACULAR</t>
+  </si>
+  <si>
+    <t>FAST MONEY</t>
+  </si>
+  <si>
+    <t>$20,000 LUCKY 7S</t>
+  </si>
+  <si>
+    <t>LOVE TO WIN DOUBLER</t>
+  </si>
+  <si>
+    <t>Backstage Pass To Cash</t>
+  </si>
+  <si>
+    <t>MONEY MULTIPLIER</t>
+  </si>
+  <si>
+    <t>INSTANT BINGO</t>
+  </si>
+  <si>
+    <t>Birthday Surprise</t>
+  </si>
+  <si>
+    <t>$8,000,000 Copper Payout</t>
+  </si>
+  <si>
+    <t>FAST CASH</t>
+  </si>
+  <si>
+    <t>BIRTHDAY SURPRISE</t>
+  </si>
+  <si>
+    <t>MONEY ROLL</t>
+  </si>
+  <si>
+    <t>QUICK $50s</t>
+  </si>
+  <si>
+    <t>HOLIDAY LUCKY TIMES 10</t>
+  </si>
+  <si>
+    <t>Holiday Lucky Times 10</t>
+  </si>
+  <si>
+    <t>$20,000 GOLD RUSH</t>
+  </si>
+  <si>
+    <t>SUMMER LUCKY TIMES 10</t>
+  </si>
+  <si>
+    <t>10X THE BUCKS</t>
+  </si>
+  <si>
+    <t>HIT $100!</t>
+  </si>
+  <si>
+    <t>$3.00 Games</t>
+  </si>
+  <si>
+    <t>LOTERIA</t>
+  </si>
+  <si>
+    <t>Win For Life</t>
+  </si>
+  <si>
+    <t>WIN FOR LIFE!</t>
+  </si>
+  <si>
+    <t>MONEY VAULT</t>
+  </si>
+  <si>
+    <t>CROSSWORD</t>
+  </si>
+  <si>
+    <t>Loteria</t>
+  </si>
+  <si>
+    <t>Blackout Bingo</t>
+  </si>
+  <si>
+    <t>DOUBLE DOLLAR BINGO</t>
+  </si>
+  <si>
+    <t>SUPER TIC TAC TOE</t>
+  </si>
+  <si>
+    <t>BINGO PLUS</t>
+  </si>
+  <si>
+    <t>DOUBLE WIN</t>
+  </si>
+  <si>
+    <t>Crossword</t>
+  </si>
+  <si>
+    <t>$5.00 Games</t>
+  </si>
+  <si>
+    <t>PINK DIAMOND BINGO</t>
+  </si>
+  <si>
+    <t>LUCKY TIMES 20</t>
+  </si>
+  <si>
+    <t>$500 FRENZY</t>
+  </si>
+  <si>
+    <t>Holiday Spectacular</t>
+  </si>
+  <si>
+    <t>SUPER CROSSWORD</t>
+  </si>
+  <si>
+    <t>HOLIDAY BUCKS</t>
+  </si>
+  <si>
+    <t>MONEY MATCH</t>
+  </si>
+  <si>
+    <t>HIGH CARD POKER</t>
+  </si>
+  <si>
+    <t>$200,000 LUCKY 7S</t>
+  </si>
+  <si>
+    <t>Diamonds and Dollars</t>
+  </si>
+  <si>
+    <t>Super Casino</t>
+  </si>
+  <si>
+    <t>BINGO BONUS SQUARE</t>
+  </si>
+  <si>
+    <t>$150K POKER RICHE$</t>
+  </si>
+  <si>
+    <t>$200,000 GOLD RUSH</t>
+  </si>
+  <si>
+    <t>DIAMONDS AND DOLLARS</t>
+  </si>
+  <si>
+    <t>$18,000,000 SILVER PAYOUT</t>
+  </si>
+  <si>
+    <t>LADY LUCK BONUS</t>
+  </si>
+  <si>
+    <t>SUPER MONEY MULTIPLIER</t>
+  </si>
+  <si>
+    <t>THE VOICE</t>
+  </si>
+  <si>
+    <t>WILD TIME MULTIPLIER</t>
+  </si>
+  <si>
+    <t>Ruby Red Riches</t>
+  </si>
+  <si>
+    <t>$150,000 POKER</t>
+  </si>
+  <si>
+    <t>Hot Spot Bingo</t>
+  </si>
+  <si>
+    <t>Bingo Times 10</t>
+  </si>
+  <si>
+    <t>Super Crossword</t>
+  </si>
+  <si>
+    <t>20X THE BUCKS</t>
+  </si>
+  <si>
+    <t>$10.00 Games</t>
+  </si>
+  <si>
+    <t>$250,000 CROSSWORD</t>
+  </si>
+  <si>
+    <t>MILLION DOLLAR MULTIPLIER</t>
+  </si>
+  <si>
+    <t>50X THE BUCKS</t>
+  </si>
+  <si>
+    <t>$1,000,000 SPECTACULAR</t>
+  </si>
+  <si>
+    <t>$1,000,000 LUCKY 7S</t>
+  </si>
+  <si>
+    <t>HOT RICHES</t>
+  </si>
+  <si>
+    <t>$1,000,000 Spectacular</t>
+  </si>
+  <si>
     <t>2019-03-07</t>
   </si>
   <si>
-    <t>LOOSE CHANGE</t>
-  </si>
-  <si>
-    <t>Holiday Sparkle</t>
-  </si>
-  <si>
-    <t>HOLIDAY LOOSE CHANGE</t>
-  </si>
-  <si>
-    <t>5X THE BUCKS</t>
-  </si>
-  <si>
-    <t>$2.00 Games</t>
-  </si>
-  <si>
-    <t>Big Money Spectacular</t>
-  </si>
-  <si>
-    <t>BIG MONEY SPECTACULAR</t>
-  </si>
-  <si>
-    <t>FAST MONEY</t>
-  </si>
-  <si>
-    <t>$20,000 LUCKY 7S</t>
-  </si>
-  <si>
-    <t>LOVE TO WIN DOUBLER</t>
-  </si>
-  <si>
-    <t>Backstage Pass To Cash</t>
-  </si>
-  <si>
-    <t>MONEY MULTIPLIER</t>
-  </si>
-  <si>
-    <t>INSTANT BINGO</t>
-  </si>
-  <si>
-    <t>Birthday Surprise</t>
-  </si>
-  <si>
-    <t>$8,000,000 Copper Payout</t>
-  </si>
-  <si>
-    <t>BIRTHDAY SURPRISE</t>
-  </si>
-  <si>
-    <t>FAST CASH</t>
-  </si>
-  <si>
-    <t>MONEY ROLL</t>
-  </si>
-  <si>
-    <t>QUICK $50s</t>
-  </si>
-  <si>
-    <t>HOLIDAY LUCKY TIMES 10</t>
-  </si>
-  <si>
-    <t>$20,000 GOLD RUSH</t>
-  </si>
-  <si>
-    <t>SUMMER LUCKY TIMES 10</t>
-  </si>
-  <si>
-    <t>10X THE BUCKS</t>
-  </si>
-  <si>
-    <t>HIT $100!</t>
-  </si>
-  <si>
-    <t>Holiday Lucky Times 10</t>
-  </si>
-  <si>
-    <t>$3.00 Games</t>
-  </si>
-  <si>
-    <t>LOTERIA</t>
-  </si>
-  <si>
-    <t>Win For Life</t>
-  </si>
-  <si>
-    <t>WIN FOR LIFE!</t>
-  </si>
-  <si>
-    <t>MONEY VAULT</t>
-  </si>
-  <si>
-    <t>CROSSWORD</t>
-  </si>
-  <si>
-    <t>Loteria</t>
-  </si>
-  <si>
-    <t>Blackout Bingo</t>
-  </si>
-  <si>
-    <t>DOUBLE DOLLAR BINGO</t>
-  </si>
-  <si>
-    <t>SUPER TIC TAC TOE</t>
-  </si>
-  <si>
-    <t>BINGO PLUS</t>
-  </si>
-  <si>
-    <t>DOUBLE WIN</t>
-  </si>
-  <si>
-    <t>Crossword</t>
-  </si>
-  <si>
-    <t>$5.00 Games</t>
-  </si>
-  <si>
-    <t>PINK DIAMOND BINGO</t>
-  </si>
-  <si>
-    <t>LUCKY TIMES 20</t>
-  </si>
-  <si>
-    <t>Holiday Spectacular</t>
-  </si>
-  <si>
-    <t>$500 FRENZY</t>
-  </si>
-  <si>
-    <t>SUPER CROSSWORD</t>
-  </si>
-  <si>
-    <t>HOLIDAY BUCKS</t>
-  </si>
-  <si>
-    <t>MONEY MATCH</t>
-  </si>
-  <si>
-    <t>HIGH CARD POKER</t>
-  </si>
-  <si>
-    <t>Diamonds and Dollars</t>
-  </si>
-  <si>
-    <t>$200,000 LUCKY 7S</t>
-  </si>
-  <si>
-    <t>Super Casino</t>
-  </si>
-  <si>
-    <t>BINGO BONUS SQUARE</t>
-  </si>
-  <si>
-    <t>$200,000 GOLD RUSH</t>
-  </si>
-  <si>
-    <t>$150K POKER RICHE$</t>
-  </si>
-  <si>
-    <t>DIAMONDS AND DOLLARS</t>
-  </si>
-  <si>
-    <t>LADY LUCK BONUS</t>
-  </si>
-  <si>
-    <t>$18,000,000 SILVER PAYOUT</t>
-  </si>
-  <si>
-    <t>SUPER MONEY MULTIPLIER</t>
-  </si>
-  <si>
-    <t>THE VOICE</t>
-  </si>
-  <si>
-    <t>WILD TIME MULTIPLIER</t>
-  </si>
-  <si>
-    <t>Ruby Red Riches</t>
-  </si>
-  <si>
-    <t>Hot Spot Bingo</t>
-  </si>
-  <si>
-    <t>Bingo Times 10</t>
-  </si>
-  <si>
-    <t>Super Crossword</t>
-  </si>
-  <si>
-    <t>20X THE BUCKS</t>
-  </si>
-  <si>
-    <t>$150,000 POKER</t>
-  </si>
-  <si>
-    <t>$10.00 Games</t>
-  </si>
-  <si>
-    <t>$250,000 CROSSWORD</t>
-  </si>
-  <si>
-    <t>MILLION DOLLAR MULTIPLIER</t>
-  </si>
-  <si>
-    <t>$1,000,000 Spectacular</t>
-  </si>
-  <si>
-    <t>50X THE BUCKS</t>
-  </si>
-  <si>
-    <t>$1,000,000 SPECTACULAR</t>
-  </si>
-  <si>
-    <t>$1,000,000 LUCKY 7S</t>
-  </si>
-  <si>
-    <t>HOT RICHES</t>
-  </si>
-  <si>
     <t>$500,000 Riches</t>
   </si>
   <si>
@@ -281,12 +284,12 @@
     <t>CA$H BLA$T</t>
   </si>
   <si>
+    <t>$1,000,000 GOLD RUSH</t>
+  </si>
+  <si>
     <t>JERSEY CASH BLOWOUT</t>
   </si>
   <si>
-    <t>$1,000,000 GOLD RUSH</t>
-  </si>
-  <si>
     <t>CA$H BA$H</t>
   </si>
   <si>
@@ -311,10 +314,10 @@
     <t>DAZZLING DIAMOND SPECTACULAR</t>
   </si>
   <si>
+    <t>Platinum Diamond Spectacular</t>
+  </si>
+  <si>
     <t>100X THE BUCKS</t>
-  </si>
-  <si>
-    <t>Platinum Diamond Spectacular</t>
   </si>
   <si>
     <t>$25.00 Games</t>
@@ -753,7 +756,7 @@
         <v>1521</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -773,7 +776,7 @@
         <v>1546</v>
       </c>
       <c r="E5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -847,13 +850,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -867,13 +870,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>1507</v>
+        <v>1514</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -1150,10 +1153,10 @@
         <v>25</v>
       </c>
       <c r="D24">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1170,10 +1173,10 @@
         <v>26</v>
       </c>
       <c r="D25">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1187,13 +1190,13 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1207,13 +1210,13 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>1541</v>
+        <v>1548</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1287,10 +1290,10 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>1486</v>
+        <v>1450</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1307,10 +1310,10 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>1468</v>
+        <v>1486</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1330,7 +1333,7 @@
         <v>31</v>
       </c>
       <c r="D33">
-        <v>1487</v>
+        <v>1468</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1350,7 +1353,7 @@
         <v>32</v>
       </c>
       <c r="D34">
-        <v>1442</v>
+        <v>1487</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1370,7 +1373,7 @@
         <v>33</v>
       </c>
       <c r="D35">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1387,10 +1390,10 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>1500</v>
+        <v>1445</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1407,10 +1410,10 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1627,13 +1630,13 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D48">
-        <v>1438</v>
+        <v>1508</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1647,13 +1650,13 @@
         <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D49">
-        <v>1508</v>
+        <v>1438</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1687,10 +1690,10 @@
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D51">
-        <v>1448</v>
+        <v>1409</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1707,10 +1710,10 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>1409</v>
+        <v>1448</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1786,14 +1789,14 @@
       <c r="B56" t="s">
         <v>48</v>
       </c>
-      <c r="C56">
-        <v>7</v>
+      <c r="C56" t="s">
+        <v>51</v>
       </c>
       <c r="D56">
-        <v>1457</v>
+        <v>1512</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1806,11 +1809,11 @@
       <c r="B57" t="s">
         <v>48</v>
       </c>
-      <c r="C57" t="s">
-        <v>51</v>
+      <c r="C57">
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1830,10 +1833,10 @@
         <v>52</v>
       </c>
       <c r="D58">
-        <v>1512</v>
+        <v>1451</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1867,13 +1870,13 @@
         <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60">
-        <v>1516</v>
+        <v>1526</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1887,13 +1890,13 @@
         <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D61">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1950,7 +1953,7 @@
         <v>57</v>
       </c>
       <c r="D64">
-        <v>1446</v>
+        <v>1504</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -1970,7 +1973,7 @@
         <v>58</v>
       </c>
       <c r="D65">
-        <v>1504</v>
+        <v>1446</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2030,10 +2033,10 @@
         <v>61</v>
       </c>
       <c r="D68">
-        <v>1469</v>
+        <v>1523</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2050,10 +2053,10 @@
         <v>62</v>
       </c>
       <c r="D69">
-        <v>1523</v>
+        <v>1469</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2090,10 +2093,10 @@
         <v>64</v>
       </c>
       <c r="D71">
-        <v>1497</v>
+        <v>1531</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2110,10 +2113,10 @@
         <v>65</v>
       </c>
       <c r="D72">
-        <v>1531</v>
+        <v>1497</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2127,7 +2130,7 @@
         <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D73">
         <v>1545</v>
@@ -2227,10 +2230,10 @@
         <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D78">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2247,10 +2250,10 @@
         <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D79">
-        <v>1414</v>
+        <v>1466</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2267,10 +2270,10 @@
         <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D80">
-        <v>1472</v>
+        <v>1414</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2287,10 +2290,10 @@
         <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D81">
-        <v>1501</v>
+        <v>1472</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2310,7 +2313,7 @@
         <v>72</v>
       </c>
       <c r="D82">
-        <v>1477</v>
+        <v>1501</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2327,10 +2330,10 @@
         <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D83">
-        <v>1509</v>
+        <v>1477</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2347,10 +2350,10 @@
         <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D84">
-        <v>1443</v>
+        <v>1509</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2370,7 +2373,7 @@
         <v>74</v>
       </c>
       <c r="D85">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2430,7 +2433,7 @@
         <v>78</v>
       </c>
       <c r="D88">
-        <v>1368</v>
+        <v>1444</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2450,7 +2453,7 @@
         <v>79</v>
       </c>
       <c r="D89">
-        <v>1444</v>
+        <v>1463</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2470,10 +2473,10 @@
         <v>80</v>
       </c>
       <c r="D90">
-        <v>1463</v>
+        <v>1505</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>9</v>
@@ -2490,10 +2493,10 @@
         <v>81</v>
       </c>
       <c r="D91">
-        <v>1505</v>
+        <v>1489</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
@@ -2510,13 +2513,13 @@
         <v>82</v>
       </c>
       <c r="D92">
-        <v>1489</v>
+        <v>1368</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2527,7 +2530,7 @@
         <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D93">
         <v>1517</v>
@@ -2547,7 +2550,7 @@
         <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D94">
         <v>1432</v>
@@ -2567,7 +2570,7 @@
         <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D95">
         <v>1452</v>
@@ -2587,7 +2590,7 @@
         <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D96">
         <v>1532</v>
@@ -2607,13 +2610,13 @@
         <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D97">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
@@ -2627,13 +2630,13 @@
         <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D98">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>9</v>
@@ -2647,13 +2650,13 @@
         <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D99">
         <v>1513</v>
       </c>
       <c r="E99">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
@@ -2667,13 +2670,13 @@
         <v>75</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D100">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="E100">
-        <v>31674</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
@@ -2687,13 +2690,13 @@
         <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D101">
-        <v>1470</v>
+        <v>1482</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>31231</v>
       </c>
       <c r="F101" t="s">
         <v>9</v>
@@ -2707,7 +2710,7 @@
         <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D102">
         <v>1447</v>
@@ -2727,7 +2730,7 @@
         <v>75</v>
       </c>
       <c r="C103" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D103">
         <v>1428</v>
@@ -2750,7 +2753,7 @@
         <v>76</v>
       </c>
       <c r="D104">
-        <v>1458</v>
+        <v>1528</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2770,7 +2773,7 @@
         <v>76</v>
       </c>
       <c r="D105">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2790,7 +2793,7 @@
         <v>76</v>
       </c>
       <c r="D106">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2810,7 +2813,7 @@
         <v>76</v>
       </c>
       <c r="D107">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2830,7 +2833,7 @@
         <v>76</v>
       </c>
       <c r="D108">
-        <v>1528</v>
+        <v>1493</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2844,10 +2847,10 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C109" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D109">
         <v>1461</v>
@@ -2864,10 +2867,10 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C110" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D110">
         <v>1533</v>
@@ -2884,10 +2887,10 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C111" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D111">
         <v>1527</v>
@@ -2904,10 +2907,10 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C112" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D112">
         <v>1506</v>
@@ -2924,10 +2927,10 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C113" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D113">
         <v>1459</v>
@@ -2944,10 +2947,10 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C114" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D114">
         <v>1476</v>
@@ -2964,13 +2967,13 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C115" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D115">
-        <v>1413</v>
+        <v>1364</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2984,13 +2987,13 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D116">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -3004,13 +3007,13 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D117">
-        <v>1364</v>
+        <v>1422</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -3024,10 +3027,10 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C118" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D118">
         <v>1519</v>
@@ -3044,10 +3047,10 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C119" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D119">
         <v>1485</v>
@@ -3064,10 +3067,10 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C120" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D120">
         <v>1437</v>
@@ -3084,10 +3087,10 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C121" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D121">
         <v>1407</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_NJ.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_NJ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>STATE</t>
   </si>
@@ -41,117 +41,81 @@
     <t>$1.00 Games</t>
   </si>
   <si>
-    <t>POCKET CHANGE</t>
-  </si>
-  <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
     <t>LOOSE CHANGE</t>
   </si>
   <si>
-    <t>Holiday Sparkle</t>
+    <t>2019-04-11</t>
   </si>
   <si>
     <t>HOLIDAY LOOSE CHANGE</t>
   </si>
   <si>
-    <t>5X THE BUCKS</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
-    <t>Big Money Spectacular</t>
-  </si>
-  <si>
     <t>BIG MONEY SPECTACULAR</t>
   </si>
   <si>
+    <t>$20,000 LUCKY 7S</t>
+  </si>
+  <si>
+    <t>MONEY MULTIPLIER</t>
+  </si>
+  <si>
+    <t>Backstage Pass To Cash</t>
+  </si>
+  <si>
+    <t>Birthday Surprise</t>
+  </si>
+  <si>
+    <t>FAST CASH</t>
+  </si>
+  <si>
+    <t>MONEY ROLL</t>
+  </si>
+  <si>
+    <t>BIRTHDAY SURPRISE</t>
+  </si>
+  <si>
+    <t>QUICK $50s</t>
+  </si>
+  <si>
+    <t>$8,000,000 Copper Payout</t>
+  </si>
+  <si>
     <t>FAST MONEY</t>
   </si>
   <si>
-    <t>$20,000 LUCKY 7S</t>
-  </si>
-  <si>
-    <t>LOVE TO WIN DOUBLER</t>
-  </si>
-  <si>
-    <t>Backstage Pass To Cash</t>
-  </si>
-  <si>
-    <t>MONEY MULTIPLIER</t>
-  </si>
-  <si>
-    <t>INSTANT BINGO</t>
-  </si>
-  <si>
-    <t>Birthday Surprise</t>
-  </si>
-  <si>
-    <t>$8,000,000 Copper Payout</t>
-  </si>
-  <si>
-    <t>FAST CASH</t>
-  </si>
-  <si>
-    <t>BIRTHDAY SURPRISE</t>
-  </si>
-  <si>
-    <t>MONEY ROLL</t>
-  </si>
-  <si>
-    <t>QUICK $50s</t>
+    <t>Double Match</t>
   </si>
   <si>
     <t>HOLIDAY LUCKY TIMES 10</t>
   </si>
   <si>
-    <t>Holiday Lucky Times 10</t>
-  </si>
-  <si>
-    <t>$20,000 GOLD RUSH</t>
-  </si>
-  <si>
-    <t>SUMMER LUCKY TIMES 10</t>
-  </si>
-  <si>
-    <t>10X THE BUCKS</t>
-  </si>
-  <si>
-    <t>HIT $100!</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
     <t>LOTERIA</t>
   </si>
   <si>
-    <t>Win For Life</t>
-  </si>
-  <si>
     <t>WIN FOR LIFE!</t>
   </si>
   <si>
-    <t>MONEY VAULT</t>
+    <t>SUPER TIC TAC TOE</t>
+  </si>
+  <si>
+    <t>Blackout Bingo</t>
+  </si>
+  <si>
+    <t>Loteria</t>
   </si>
   <si>
     <t>CROSSWORD</t>
   </si>
   <si>
-    <t>Loteria</t>
-  </si>
-  <si>
-    <t>Blackout Bingo</t>
-  </si>
-  <si>
     <t>DOUBLE DOLLAR BINGO</t>
   </si>
   <si>
-    <t>SUPER TIC TAC TOE</t>
-  </si>
-  <si>
     <t>BINGO PLUS</t>
   </si>
   <si>
@@ -164,91 +128,79 @@
     <t>$5.00 Games</t>
   </si>
   <si>
-    <t>PINK DIAMOND BINGO</t>
+    <t>$500 FRENZY</t>
   </si>
   <si>
     <t>LUCKY TIMES 20</t>
   </si>
   <si>
-    <t>$500 FRENZY</t>
-  </si>
-  <si>
-    <t>Holiday Spectacular</t>
+    <t>$200,000 LUCKY 7S</t>
+  </si>
+  <si>
+    <t>HOLIDAY BUCKS</t>
   </si>
   <si>
     <t>SUPER CROSSWORD</t>
   </si>
   <si>
-    <t>HOLIDAY BUCKS</t>
-  </si>
-  <si>
     <t>MONEY MATCH</t>
   </si>
   <si>
     <t>HIGH CARD POKER</t>
   </si>
   <si>
-    <t>$200,000 LUCKY 7S</t>
-  </si>
-  <si>
-    <t>Diamonds and Dollars</t>
-  </si>
-  <si>
-    <t>Super Casino</t>
-  </si>
-  <si>
     <t>BINGO BONUS SQUARE</t>
   </si>
   <si>
+    <t>$200,000 GOLD RUSH</t>
+  </si>
+  <si>
+    <t>LADY LUCK BONUS</t>
+  </si>
+  <si>
+    <t>SUPER MONEY MULTIPLIER</t>
+  </si>
+  <si>
     <t>$150K POKER RICHE$</t>
   </si>
   <si>
-    <t>$200,000 GOLD RUSH</t>
-  </si>
-  <si>
     <t>DIAMONDS AND DOLLARS</t>
   </si>
   <si>
+    <t>Lucky Times 20</t>
+  </si>
+  <si>
+    <t>THE VOICE</t>
+  </si>
+  <si>
     <t>$18,000,000 SILVER PAYOUT</t>
   </si>
   <si>
-    <t>LADY LUCK BONUS</t>
-  </si>
-  <si>
-    <t>SUPER MONEY MULTIPLIER</t>
-  </si>
-  <si>
-    <t>THE VOICE</t>
-  </si>
-  <si>
     <t>WILD TIME MULTIPLIER</t>
   </si>
   <si>
     <t>Ruby Red Riches</t>
   </si>
   <si>
-    <t>$150,000 POKER</t>
-  </si>
-  <si>
-    <t>Hot Spot Bingo</t>
-  </si>
-  <si>
     <t>Bingo Times 10</t>
   </si>
   <si>
     <t>Super Crossword</t>
   </si>
   <si>
-    <t>20X THE BUCKS</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>MILLION DOLLAR MULTIPLIER</t>
+  </si>
+  <si>
     <t>$250,000 CROSSWORD</t>
   </si>
   <si>
-    <t>MILLION DOLLAR MULTIPLIER</t>
+    <t>HOT RICHES</t>
+  </si>
+  <si>
+    <t>$1,000,000 LUCKY 7S</t>
   </si>
   <si>
     <t>50X THE BUCKS</t>
@@ -257,45 +209,24 @@
     <t>$1,000,000 SPECTACULAR</t>
   </si>
   <si>
-    <t>$1,000,000 LUCKY 7S</t>
-  </si>
-  <si>
-    <t>HOT RICHES</t>
-  </si>
-  <si>
-    <t>$1,000,000 Spectacular</t>
-  </si>
-  <si>
-    <t>2019-03-07</t>
-  </si>
-  <si>
-    <t>$500,000 Riches</t>
+    <t>$52,000,000 Gold Payout</t>
   </si>
   <si>
     <t>$10,000 Bonus</t>
   </si>
   <si>
-    <t>$52,000,000 Gold Payout</t>
-  </si>
-  <si>
     <t>LUCKY TIMES 50</t>
   </si>
   <si>
+    <t>$1,000,000 GOLD RUSH</t>
+  </si>
+  <si>
     <t>CA$H BLA$T</t>
   </si>
   <si>
-    <t>$1,000,000 GOLD RUSH</t>
-  </si>
-  <si>
     <t>JERSEY CASH BLOWOUT</t>
   </si>
   <si>
-    <t>CA$H BA$H</t>
-  </si>
-  <si>
-    <t>Cash In A Flash</t>
-  </si>
-  <si>
     <t>$20.00 Games</t>
   </si>
   <si>
@@ -314,12 +245,6 @@
     <t>DAZZLING DIAMOND SPECTACULAR</t>
   </si>
   <si>
-    <t>Platinum Diamond Spectacular</t>
-  </si>
-  <si>
-    <t>100X THE BUCKS</t>
-  </si>
-  <si>
     <t>$25.00 Games</t>
   </si>
   <si>
@@ -333,9 +258,6 @@
   </si>
   <si>
     <t>$200 Million Cash Bonanza</t>
-  </si>
-  <si>
-    <t>$5,000,000 Fortune</t>
   </si>
 </sst>
 </file>
@@ -674,7 +596,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,10 +635,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1439</v>
+        <v>1553</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -730,13 +652,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>1464</v>
+        <v>1546</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -750,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1521</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -770,13 +692,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>1546</v>
+        <v>1511</v>
       </c>
       <c r="E5">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -790,10 +712,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>1449</v>
+        <v>1514</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -807,16 +729,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -827,16 +749,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>1511</v>
+        <v>1503</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -847,16 +769,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>1507</v>
+        <v>1520</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -867,16 +789,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>1514</v>
+        <v>1474</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -887,16 +809,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>1441</v>
+        <v>1426</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -907,16 +829,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>1460</v>
+        <v>1518</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -927,16 +849,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>1462</v>
+        <v>1541</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -947,16 +869,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>1479</v>
+        <v>1524</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -967,13 +889,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>1490</v>
+        <v>1534</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -987,16 +909,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>1503</v>
+        <v>1530</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1007,16 +929,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>1465</v>
+        <v>1539</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1027,16 +949,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>1474</v>
+        <v>1548</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1047,16 +969,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>1520</v>
+        <v>1543</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1067,16 +989,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>1440</v>
+        <v>1547</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1087,13 +1009,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>1426</v>
+        <v>1515</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1107,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>1530</v>
+        <v>1500</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1127,16 +1049,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>1539</v>
+        <v>1486</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1147,16 +1069,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>1518</v>
+        <v>1480</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1167,16 +1089,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>1524</v>
+        <v>1491</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1187,16 +1109,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>1541</v>
+        <v>1496</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1207,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>1548</v>
+        <v>1471</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1227,13 +1149,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1247,16 +1169,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>1515</v>
+        <v>1529</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1267,16 +1189,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>1434</v>
+        <v>1499</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1287,16 +1209,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
       </c>
       <c r="D31">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1307,16 +1229,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>1486</v>
+        <v>1544</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1327,16 +1249,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>1468</v>
+        <v>1508</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1347,16 +1269,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>1487</v>
+        <v>1557</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1367,13 +1289,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>1442</v>
+        <v>1456</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1387,13 +1309,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>1445</v>
+        <v>1495</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1407,16 +1329,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D37">
-        <v>1500</v>
+        <v>1512</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1427,16 +1349,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1447,13 +1369,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D39">
-        <v>1420</v>
+        <v>1504</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1467,13 +1389,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>1491</v>
+        <v>1516</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1487,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>1406</v>
+        <v>1526</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1507,16 +1429,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1527,16 +1449,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>1525</v>
+        <v>1481</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1547,13 +1469,13 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>1471</v>
+        <v>1538</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -1567,16 +1489,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D45">
-        <v>1544</v>
+        <v>1469</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1587,13 +1509,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D46">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1607,16 +1529,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D47">
-        <v>1529</v>
+        <v>1535</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1627,16 +1549,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>1508</v>
+        <v>1523</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1647,16 +1569,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D49">
-        <v>1438</v>
+        <v>1545</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1667,16 +1589,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D50">
-        <v>1456</v>
+        <v>1522</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1687,16 +1609,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D51">
-        <v>1409</v>
+        <v>1552</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1707,16 +1629,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D52">
-        <v>1448</v>
+        <v>1537</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1727,16 +1649,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D53">
-        <v>1495</v>
+        <v>1510</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1747,13 +1669,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D54">
-        <v>1483</v>
+        <v>1531</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -1767,13 +1689,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D55">
-        <v>1475</v>
+        <v>1488</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1787,16 +1709,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D56">
-        <v>1512</v>
+        <v>1484</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1807,16 +1729,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>55</v>
       </c>
       <c r="D57">
-        <v>1457</v>
+        <v>1501</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1827,16 +1749,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D58">
-        <v>1451</v>
+        <v>1477</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1847,16 +1769,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D59">
-        <v>1427</v>
+        <v>1509</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1867,16 +1789,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D60">
-        <v>1526</v>
+        <v>1492</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1887,13 +1809,13 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D61">
-        <v>1516</v>
+        <v>1498</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1907,16 +1829,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D62">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1927,16 +1849,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D63">
-        <v>1481</v>
+        <v>1505</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1947,13 +1869,13 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D64">
-        <v>1504</v>
+        <v>1444</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -1967,13 +1889,13 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D65">
-        <v>1446</v>
+        <v>1463</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -1987,16 +1909,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
         <v>59</v>
       </c>
       <c r="D66">
-        <v>1431</v>
+        <v>1542</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -2007,13 +1929,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D67">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -2027,16 +1949,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D68">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2047,16 +1969,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D69">
-        <v>1469</v>
+        <v>1452</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2067,16 +1989,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D70">
-        <v>1522</v>
+        <v>1536</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2087,13 +2009,13 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D71">
-        <v>1531</v>
+        <v>1554</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -2107,16 +2029,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D72">
-        <v>1497</v>
+        <v>1470</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2127,16 +2049,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D73">
-        <v>1545</v>
+        <v>1513</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2147,16 +2069,16 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D74">
-        <v>1535</v>
+        <v>1482</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>28662</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2167,16 +2089,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D75">
-        <v>1510</v>
+        <v>1528</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2187,13 +2109,13 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D76">
-        <v>1488</v>
+        <v>1461</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2207,16 +2129,16 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D77">
-        <v>1484</v>
+        <v>1527</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -2227,16 +2149,16 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D78">
-        <v>1455</v>
+        <v>1533</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -2247,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D79">
-        <v>1466</v>
+        <v>1506</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -2267,16 +2189,16 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D80">
-        <v>1414</v>
+        <v>1459</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -2287,16 +2209,16 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D81">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2307,16 +2229,16 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D82">
-        <v>1501</v>
+        <v>1519</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -2327,16 +2249,16 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D83">
-        <v>1477</v>
+        <v>1485</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2347,758 +2269,18 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D84">
-        <v>1509</v>
+        <v>1437</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85">
-        <v>1443</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" t="s">
-        <v>76</v>
-      </c>
-      <c r="D86">
-        <v>1498</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" t="s">
-        <v>77</v>
-      </c>
-      <c r="D87">
-        <v>1492</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88">
-        <v>1444</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89">
-        <v>1463</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" t="s">
-        <v>80</v>
-      </c>
-      <c r="D90">
-        <v>1505</v>
-      </c>
-      <c r="E90">
-        <v>3</v>
-      </c>
-      <c r="F90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" t="s">
-        <v>81</v>
-      </c>
-      <c r="D91">
-        <v>1489</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92">
-        <v>1368</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" t="s">
-        <v>79</v>
-      </c>
-      <c r="D93">
-        <v>1517</v>
-      </c>
-      <c r="E93">
-        <v>3</v>
-      </c>
-      <c r="F93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94" t="s">
-        <v>84</v>
-      </c>
-      <c r="D94">
-        <v>1432</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95">
-        <v>1452</v>
-      </c>
-      <c r="E95">
-        <v>28</v>
-      </c>
-      <c r="F95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" t="s">
-        <v>75</v>
-      </c>
-      <c r="C96" t="s">
-        <v>86</v>
-      </c>
-      <c r="D96">
-        <v>1532</v>
-      </c>
-      <c r="E96">
-        <v>3</v>
-      </c>
-      <c r="F96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" t="s">
-        <v>76</v>
-      </c>
-      <c r="D97">
-        <v>1542</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
-      </c>
-      <c r="F97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" t="s">
-        <v>87</v>
-      </c>
-      <c r="D98">
-        <v>1536</v>
-      </c>
-      <c r="E98">
-        <v>3</v>
-      </c>
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" t="s">
-        <v>75</v>
-      </c>
-      <c r="C99" t="s">
-        <v>88</v>
-      </c>
-      <c r="D99">
-        <v>1513</v>
-      </c>
-      <c r="E99">
-        <v>462</v>
-      </c>
-      <c r="F99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100" t="s">
-        <v>89</v>
-      </c>
-      <c r="D100">
-        <v>1470</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" t="s">
-        <v>90</v>
-      </c>
-      <c r="D101">
-        <v>1482</v>
-      </c>
-      <c r="E101">
-        <v>31231</v>
-      </c>
-      <c r="F101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" t="s">
-        <v>75</v>
-      </c>
-      <c r="C102" t="s">
-        <v>91</v>
-      </c>
-      <c r="D102">
-        <v>1447</v>
-      </c>
-      <c r="E102">
-        <v>130</v>
-      </c>
-      <c r="F102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" t="s">
-        <v>75</v>
-      </c>
-      <c r="C103" t="s">
-        <v>92</v>
-      </c>
-      <c r="D103">
-        <v>1428</v>
-      </c>
-      <c r="E103">
-        <v>35</v>
-      </c>
-      <c r="F103" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" t="s">
-        <v>76</v>
-      </c>
-      <c r="D104">
-        <v>1528</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" t="s">
-        <v>76</v>
-      </c>
-      <c r="D105">
-        <v>1458</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
-        <v>6</v>
-      </c>
-      <c r="B106" t="s">
-        <v>75</v>
-      </c>
-      <c r="C106" t="s">
-        <v>76</v>
-      </c>
-      <c r="D106">
-        <v>1473</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" t="s">
-        <v>75</v>
-      </c>
-      <c r="C107" t="s">
-        <v>76</v>
-      </c>
-      <c r="D107">
-        <v>1478</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" t="s">
-        <v>75</v>
-      </c>
-      <c r="C108" t="s">
-        <v>76</v>
-      </c>
-      <c r="D108">
-        <v>1493</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" t="s">
-        <v>94</v>
-      </c>
-      <c r="D109">
-        <v>1461</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>6</v>
-      </c>
-      <c r="B110" t="s">
-        <v>93</v>
-      </c>
-      <c r="C110" t="s">
-        <v>95</v>
-      </c>
-      <c r="D110">
-        <v>1533</v>
-      </c>
-      <c r="E110">
-        <v>3</v>
-      </c>
-      <c r="F110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" t="s">
-        <v>93</v>
-      </c>
-      <c r="C111" t="s">
-        <v>94</v>
-      </c>
-      <c r="D111">
-        <v>1527</v>
-      </c>
-      <c r="E111">
-        <v>3</v>
-      </c>
-      <c r="F111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" t="s">
-        <v>93</v>
-      </c>
-      <c r="C112" t="s">
-        <v>96</v>
-      </c>
-      <c r="D112">
-        <v>1506</v>
-      </c>
-      <c r="E112">
-        <v>2</v>
-      </c>
-      <c r="F112" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" t="s">
-        <v>93</v>
-      </c>
-      <c r="C113" t="s">
-        <v>97</v>
-      </c>
-      <c r="D113">
-        <v>1459</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
-        <v>6</v>
-      </c>
-      <c r="B114" t="s">
-        <v>93</v>
-      </c>
-      <c r="C114" t="s">
-        <v>98</v>
-      </c>
-      <c r="D114">
-        <v>1476</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" t="s">
-        <v>93</v>
-      </c>
-      <c r="C115" t="s">
-        <v>99</v>
-      </c>
-      <c r="D115">
-        <v>1364</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" t="s">
-        <v>93</v>
-      </c>
-      <c r="C116" t="s">
-        <v>94</v>
-      </c>
-      <c r="D116">
-        <v>1413</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" t="s">
-        <v>93</v>
-      </c>
-      <c r="C117" t="s">
-        <v>100</v>
-      </c>
-      <c r="D117">
-        <v>1422</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
-        <v>6</v>
-      </c>
-      <c r="B118" t="s">
-        <v>101</v>
-      </c>
-      <c r="C118" t="s">
-        <v>102</v>
-      </c>
-      <c r="D118">
-        <v>1519</v>
-      </c>
-      <c r="E118">
-        <v>2</v>
-      </c>
-      <c r="F118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" t="s">
-        <v>103</v>
-      </c>
-      <c r="C119" t="s">
-        <v>104</v>
-      </c>
-      <c r="D119">
-        <v>1485</v>
-      </c>
-      <c r="E119">
-        <v>2</v>
-      </c>
-      <c r="F119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" t="s">
-        <v>103</v>
-      </c>
-      <c r="C120" t="s">
-        <v>105</v>
-      </c>
-      <c r="D120">
-        <v>1437</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" t="s">
-        <v>103</v>
-      </c>
-      <c r="C121" t="s">
-        <v>106</v>
-      </c>
-      <c r="D121">
-        <v>1407</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121" t="s">
         <v>9</v>
       </c>
     </row>
